--- a/imports/Elemento.xlsx
+++ b/imports/Elemento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71F1568-E431-4B27-8ECE-7A5CB6FB0B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6E3B02-DDE9-461A-9D3A-491891004F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="251">
   <si>
     <t>EL</t>
   </si>
@@ -74,15 +74,9 @@
     <t>Herramienta</t>
   </si>
   <si>
-    <t>tipo elemento</t>
-  </si>
-  <si>
     <t>consecutivo</t>
   </si>
   <si>
-    <t>elemento codigo</t>
-  </si>
-  <si>
     <t>grupo</t>
   </si>
   <si>
@@ -404,24 +398,9 @@
     <t>BORDE</t>
   </si>
   <si>
-    <t>WC</t>
-  </si>
-  <si>
     <t>BASURA</t>
   </si>
   <si>
-    <t>RECTANGULAR</t>
-  </si>
-  <si>
-    <t>LLAVE LAVABO</t>
-  </si>
-  <si>
-    <t>PARED AZULEJO</t>
-  </si>
-  <si>
-    <t>MUEBLE MADERA</t>
-  </si>
-  <si>
     <t>LM</t>
   </si>
   <si>
@@ -440,24 +419,15 @@
     <t>BORDE PARED</t>
   </si>
   <si>
-    <t>LAMPARA TECHO</t>
-  </si>
-  <si>
     <t>EL-LM-001</t>
   </si>
   <si>
-    <t>BORDE PUERTA</t>
-  </si>
-  <si>
     <t>fraccion_id</t>
   </si>
   <si>
     <t>orden</t>
   </si>
   <si>
-    <t>fraccion codigo</t>
-  </si>
-  <si>
     <t>elemento_set_id</t>
   </si>
   <si>
@@ -545,18 +515,9 @@
     <t>nivel_limpieza_id</t>
   </si>
   <si>
-    <t>ES-SP-001-P</t>
-  </si>
-  <si>
-    <t>KT-SP-001-P</t>
-  </si>
-  <si>
     <t>FR-SP-001</t>
   </si>
   <si>
-    <t>ES-VI-001-P</t>
-  </si>
-  <si>
     <t>FR-VI-001</t>
   </si>
   <si>
@@ -584,24 +545,15 @@
     <t>VIDRIO INFERIOR</t>
   </si>
   <si>
-    <t>KT-VI-001-P</t>
-  </si>
-  <si>
     <t>RE-VI-001</t>
   </si>
   <si>
     <t>CM-DS-002</t>
   </si>
   <si>
-    <t>KT-VI-002-P</t>
-  </si>
-  <si>
     <t>CM-DS-001</t>
   </si>
   <si>
-    <t>Elmentos Vidrios</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
@@ -614,9 +566,6 @@
     <t>WC Exterior</t>
   </si>
   <si>
-    <t>ES-TL-001-B</t>
-  </si>
-  <si>
     <t>EL-CH-001</t>
   </si>
   <si>
@@ -641,9 +590,6 @@
     <t>LZ</t>
   </si>
   <si>
-    <t>KT-TL-002-B</t>
-  </si>
-  <si>
     <t>KT-TL-001</t>
   </si>
   <si>
@@ -677,15 +623,9 @@
     <t>KT-TL-003</t>
   </si>
   <si>
-    <t>ES-TL-001-M</t>
-  </si>
-  <si>
     <t>Medio</t>
   </si>
   <si>
-    <t>ES-TL-001-P</t>
-  </si>
-  <si>
     <t>EL-AC-001</t>
   </si>
   <si>
@@ -710,12 +650,6 @@
     <t>Puerta</t>
   </si>
   <si>
-    <t>KT-TL-002-MP</t>
-  </si>
-  <si>
-    <t>KT-TL-004-P</t>
-  </si>
-  <si>
     <t>AD-DI-OF-001</t>
   </si>
   <si>
@@ -723,6 +657,132 @@
   </si>
   <si>
     <t>AD-DI-OF-002</t>
+  </si>
+  <si>
+    <t>WC INTERIOR</t>
+  </si>
+  <si>
+    <t>WC EXTERIOR</t>
+  </si>
+  <si>
+    <t>CESTO DE BASURA</t>
+  </si>
+  <si>
+    <t>ESPEJO RECTANGULAR</t>
+  </si>
+  <si>
+    <t>CHAPA DE PUERTA</t>
+  </si>
+  <si>
+    <t>APAGADOR DE LUZ</t>
+  </si>
+  <si>
+    <t>PUERTA COMPLETA</t>
+  </si>
+  <si>
+    <t>LLAVE DE LAVABO</t>
+  </si>
+  <si>
+    <t>PARED DE AZULEJO</t>
+  </si>
+  <si>
+    <t>MUEBLE DE MADERA</t>
+  </si>
+  <si>
+    <t>LAMPARA DE TECHO</t>
+  </si>
+  <si>
+    <t>BORDE DE PUERTA</t>
+  </si>
+  <si>
+    <t>ACCESORIOS DE BANO</t>
+  </si>
+  <si>
+    <t>fraccion</t>
+  </si>
+  <si>
+    <t>elemento</t>
+  </si>
+  <si>
+    <t>nivel limpieza</t>
+  </si>
+  <si>
+    <t>uso</t>
+  </si>
+  <si>
+    <t>Sacudir Superficies</t>
+  </si>
+  <si>
+    <t>subarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemento + Kit </t>
+  </si>
+  <si>
+    <t>Limpiar Vidrios</t>
+  </si>
+  <si>
+    <t>Direccion Bano 001</t>
+  </si>
+  <si>
+    <t>Tallar Banos</t>
+  </si>
+  <si>
+    <t>Elemento + Kit + Receta + Consumo</t>
+  </si>
+  <si>
+    <t>AD-DI-BA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>CONSUMIBLES</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-BA-001-SP-001-P</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-BA-001-VI-001-P</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-BA-001-TL-001-B</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-BA-001-TL-001-M</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-BA-001-TL-001-P</t>
+  </si>
+  <si>
+    <t>KT-SP-001</t>
+  </si>
+  <si>
+    <t>KT-VI-001</t>
+  </si>
+  <si>
+    <t>KT-VI-002</t>
+  </si>
+  <si>
+    <t>KT-TL-002</t>
+  </si>
+  <si>
+    <t>KT-TL-004</t>
+  </si>
+  <si>
+    <t>KT-TL-005</t>
+  </si>
+  <si>
+    <t>KT-TL-006</t>
   </si>
 </sst>
 </file>
@@ -826,7 +886,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -886,11 +946,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,9 +993,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,11 +1008,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -964,17 +1032,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -984,6 +1067,57 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1324,9 +1458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+    <sheetView zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1347,61 +1481,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="G1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="20"/>
-      <c r="O1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="19"/>
+      <c r="L1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="19"/>
+      <c r="O1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
@@ -1418,125 +1552,125 @@
     </row>
     <row r="3" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="12">
+        <v>63</v>
+      </c>
+      <c r="I3" s="11">
         <v>1</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="12">
+        <v>63</v>
+      </c>
+      <c r="I4" s="11">
         <v>1</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="12">
+        <v>64</v>
+      </c>
+      <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
@@ -1547,19 +1681,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>0</v>
@@ -1567,280 +1701,280 @@
       <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>1</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="12">
+        <v>65</v>
+      </c>
+      <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="12">
+        <v>66</v>
+      </c>
+      <c r="I8" s="11">
         <v>1</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="12">
+        <v>94</v>
+      </c>
+      <c r="I9" s="11">
         <v>1</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12">
+        <v>67</v>
+      </c>
+      <c r="I10" s="11">
         <v>1</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="12">
+        <v>96</v>
+      </c>
+      <c r="I11" s="11">
         <v>1</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="12">
+        <v>116</v>
+      </c>
+      <c r="I12" s="11">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I13" s="12">
+        <v>123</v>
+      </c>
+      <c r="I13" s="11">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>0</v>
@@ -1848,113 +1982,113 @@
     </row>
     <row r="14" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="12">
+        <v>120</v>
+      </c>
+      <c r="I14" s="11">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" s="12">
+        <v>143</v>
+      </c>
+      <c r="I15" s="11">
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I16" s="12">
+        <v>143</v>
+      </c>
+      <c r="I16" s="11">
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>7</v>
@@ -1962,37 +2096,37 @@
     </row>
     <row r="17" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I17" s="12">
+        <v>180</v>
+      </c>
+      <c r="I17" s="11">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>5</v>
@@ -2000,75 +2134,75 @@
     </row>
     <row r="18" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I18" s="12">
+        <v>185</v>
+      </c>
+      <c r="I18" s="11">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I19" s="12">
+        <v>199</v>
+      </c>
+      <c r="I19" s="11">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>1</v>
@@ -2076,129 +2210,129 @@
     </row>
     <row r="20" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I20" s="12">
+        <v>202</v>
+      </c>
+      <c r="I20" s="11">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="13">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="12">
+        <v>68</v>
+      </c>
+      <c r="I21" s="11">
         <v>1</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="13">
+        <v>99</v>
+      </c>
+      <c r="D22" s="12">
         <v>12</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="12">
+        <v>26</v>
+      </c>
+      <c r="I22" s="11">
         <v>1</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="13">
+        <v>100</v>
+      </c>
+      <c r="D23" s="12">
         <v>80</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
@@ -2207,89 +2341,89 @@
       <c r="H23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <v>1</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="13">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="12">
+        <v>69</v>
+      </c>
+      <c r="I24" s="11">
         <v>1</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="13">
+        <v>86</v>
+      </c>
+      <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I25" s="12">
+        <v>70</v>
+      </c>
+      <c r="I25" s="11">
         <v>1</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2297,16 +2431,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="13">
+        <v>87</v>
+      </c>
+      <c r="D26" s="24">
         <v>2</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
@@ -2315,17 +2449,17 @@
       <c r="H26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <v>1</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2333,16 +2467,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="13">
+        <v>87</v>
+      </c>
+      <c r="D27" s="24">
         <v>1</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
@@ -2351,17 +2485,17 @@
       <c r="H27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <v>2</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2369,16 +2503,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="13">
+        <v>88</v>
+      </c>
+      <c r="D28" s="24">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
@@ -2387,53 +2521,53 @@
       <c r="H28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <v>1</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="13">
+        <v>89</v>
+      </c>
+      <c r="D29" s="24">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="12">
+        <v>71</v>
+      </c>
+      <c r="I29" s="11">
         <v>1</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2441,16 +2575,16 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="13">
+        <v>90</v>
+      </c>
+      <c r="D30" s="24">
         <v>1</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
@@ -2459,34 +2593,34 @@
       <c r="H30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <v>1</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="13">
+        <v>87</v>
+      </c>
+      <c r="D31" s="24">
         <v>4</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
@@ -2495,118 +2629,118 @@
       <c r="H31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <v>3</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="13">
+        <v>91</v>
+      </c>
+      <c r="D32" s="24">
         <v>3</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" s="14">
+        <v>72</v>
+      </c>
+      <c r="I32" s="13">
         <v>1</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="13">
+        <v>92</v>
+      </c>
+      <c r="D33" s="24">
         <v>1</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="12">
+        <v>73</v>
+      </c>
+      <c r="I33" s="11">
         <v>1</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="11">
+        <v>44</v>
+      </c>
+      <c r="D34" s="25">
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34" s="12">
+        <v>64</v>
+      </c>
+      <c r="I34" s="11">
         <v>2</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="13">
+        <v>207</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="24">
         <v>8</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
@@ -2615,58 +2749,58 @@
       <c r="H35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="11">
         <v>4</v>
       </c>
-      <c r="J35" s="15" t="s">
-        <v>77</v>
+      <c r="J35" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="13">
+        <v>104</v>
+      </c>
+      <c r="D36" s="24">
         <v>1</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I36" s="12">
+        <v>105</v>
+      </c>
+      <c r="I36" s="11">
         <v>1</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="13">
+        <v>90</v>
+      </c>
+      <c r="D37" s="24">
         <v>1</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10" t="s">
@@ -2675,148 +2809,148 @@
       <c r="H37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="11">
         <v>2</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="13">
+        <v>91</v>
+      </c>
+      <c r="D38" s="24">
         <v>2</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I38" s="12">
+        <v>72</v>
+      </c>
+      <c r="I38" s="11">
         <v>2</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="13">
+        <v>99</v>
+      </c>
+      <c r="D39" s="24">
         <v>1</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="12">
+        <v>26</v>
+      </c>
+      <c r="I39" s="11">
         <v>2</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="13">
+        <v>92</v>
+      </c>
+      <c r="D40" s="24">
         <v>1</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I40" s="12">
+        <v>73</v>
+      </c>
+      <c r="I40" s="11">
         <v>2</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="13">
+        <v>91</v>
+      </c>
+      <c r="D41" s="24">
         <v>1</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="12">
+        <v>72</v>
+      </c>
+      <c r="I41" s="11">
         <v>3</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="13">
+        <v>87</v>
+      </c>
+      <c r="D42" s="24">
         <v>2</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
@@ -2825,28 +2959,28 @@
       <c r="H42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="11">
         <v>5</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="13">
+        <v>87</v>
+      </c>
+      <c r="D43" s="24">
         <v>1</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
@@ -2855,106 +2989,106 @@
       <c r="H43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="11">
         <v>6</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="13">
+        <v>93</v>
+      </c>
+      <c r="D44" s="24">
         <v>1</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I44" s="12">
+        <v>74</v>
+      </c>
+      <c r="I44" s="11">
         <v>1</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="11">
+        <v>44</v>
+      </c>
+      <c r="D45" s="25">
         <v>1</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I45" s="12">
+        <v>64</v>
+      </c>
+      <c r="I45" s="11">
         <v>3</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="13">
+        <v>84</v>
+      </c>
+      <c r="D46" s="24">
         <v>1</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46" s="12">
+        <v>68</v>
+      </c>
+      <c r="I46" s="11">
         <v>2</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="48" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="25"/>
+      <c r="C48" s="17"/>
     </row>
     <row r="49" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2972,7 +3106,11 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="M3:M30">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A46">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2981,799 +3119,1061 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:A8"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.53125" customWidth="1"/>
+    <col min="1" max="1" width="23.53125" customWidth="1"/>
     <col min="2" max="2" width="11.06640625" customWidth="1"/>
     <col min="3" max="3" width="11.73046875" customWidth="1"/>
-    <col min="11" max="11" width="19.46484375" customWidth="1"/>
-    <col min="13" max="13" width="12.19921875" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" customWidth="1"/>
+    <col min="11" max="11" width="21.73046875" customWidth="1"/>
+    <col min="12" max="12" width="18.796875" customWidth="1"/>
+    <col min="13" max="13" width="29.1328125" customWidth="1"/>
+    <col min="15" max="15" width="13.53125" customWidth="1"/>
+    <col min="17" max="17" width="7.9296875" customWidth="1"/>
+    <col min="18" max="18" width="13.9296875" customWidth="1"/>
+    <col min="19" max="19" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="23" t="s">
+      <c r="G1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="24"/>
-    </row>
-    <row r="2" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="O1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="R1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="19"/>
+    </row>
+    <row r="2" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3"/>
-      <c r="M2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" s="12">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="12">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>157</v>
+        <v>230</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I5" s="12">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>230</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>174</v>
+        <v>230</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8" s="12">
-        <v>2</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10" s="12">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>211</v>
+        <v>233</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="12">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>211</v>
+        <v>233</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>211</v>
+        <v>233</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I13" s="12">
-        <v>1</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>211</v>
+        <v>233</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F14" s="1">
         <v>6</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="12">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>211</v>
+        <v>233</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F15" s="1">
         <v>7</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" s="12">
-        <v>1</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>211</v>
+        <v>233</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I16" s="12">
-        <v>1</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>216</v>
+        <v>233</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>226</v>
+        <v>175</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" s="12">
-        <v>1</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>216</v>
+        <v>233</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I18" s="12">
-        <v>1</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>216</v>
+        <v>233</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I19" s="12">
-        <v>1</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>216</v>
+        <v>233</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="12">
-        <v>1</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>216</v>
+        <v>233</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I21" s="12">
-        <v>1</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>216</v>
+        <v>233</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F22" s="1">
         <v>7</v>
@@ -3782,33 +4182,45 @@
         <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" s="12">
-        <v>1</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>216</v>
+        <v>233</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -3817,33 +4229,45 @@
         <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I23" s="12">
-        <v>2</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -3852,33 +4276,45 @@
         <v>3</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="12">
-        <v>3</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>227</v>
+        <v>76</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
@@ -3887,33 +4323,45 @@
         <v>3</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" s="12">
-        <v>4</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F26" s="1">
         <v>4</v>
@@ -3922,33 +4370,45 @@
         <v>3</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" s="12">
-        <v>5</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
@@ -3957,33 +4417,45 @@
         <v>3</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I27" s="12">
-        <v>6</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F28" s="1">
         <v>6</v>
@@ -3992,33 +4464,45 @@
         <v>3</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I28" s="12">
-        <v>7</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F29" s="1">
         <v>7</v>
@@ -4027,33 +4511,45 @@
         <v>3</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I29" s="12">
-        <v>8</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F30" s="1">
         <v>8</v>
@@ -4062,20 +4558,32 @@
         <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" s="12">
-        <v>9</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+        <v>230</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="33" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="34" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="35" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4086,14 +4594,25 @@
     <row r="40" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="41" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N3:N8 N10:N11">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="S3:S30">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P8 P10">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4102,219 +4621,380 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655E34C1-8893-416F-AC58-A8CF678637B0}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.1328125" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" customWidth="1"/>
     <col min="3" max="3" width="11.3984375" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="10" max="10" width="18.46484375" customWidth="1"/>
+    <col min="11" max="11" width="16.53125" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.9296875" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="11.1328125" customWidth="1"/>
+    <col min="18" max="18" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="23" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="N1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="23"/>
+    </row>
+    <row r="2" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="I3" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="14">
         <v>3</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E4" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F5" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>213</v>
+        <v>242</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>213</v>
+        <v>243</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G11" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+        <v>194</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N9" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N12" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:H8 H10:H11">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="O3:O8 O10">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/imports/Elemento.xlsx
+++ b/imports/Elemento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6E3B02-DDE9-461A-9D3A-491891004F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CBF7A2-F48A-4BE6-8CF2-6534553EA997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elemento" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ElementoSet" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elemento!$A$2:$J$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elemento!$A$2:$J$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="289">
   <si>
     <t>EL</t>
   </si>
@@ -128,39 +128,21 @@
     <t>EL-CE-001</t>
   </si>
   <si>
-    <t>EL-LL-001</t>
-  </si>
-  <si>
     <t>EL-MU-001</t>
   </si>
   <si>
-    <t>EL-BI-001</t>
-  </si>
-  <si>
     <t>EL-CU-001</t>
   </si>
   <si>
-    <t>EL-CR-001</t>
-  </si>
-  <si>
     <t>EL-EC-001</t>
   </si>
   <si>
-    <t>EL-SL-001</t>
-  </si>
-  <si>
-    <t>EL-TA-001</t>
-  </si>
-  <si>
     <t>EL-ME-002</t>
   </si>
   <si>
     <t>EL-TA-002</t>
   </si>
   <si>
-    <t>EL-PA-001</t>
-  </si>
-  <si>
     <t>EL-CA-001</t>
   </si>
   <si>
@@ -176,51 +158,18 @@
     <t>CUADROS DECORATIVOS</t>
   </si>
   <si>
-    <t>ELEMENTOS ORNAMENTALES</t>
-  </si>
-  <si>
-    <t>CREDENCIA LUCIA</t>
-  </si>
-  <si>
     <t>ESCRITORIO EJECUTIVO</t>
   </si>
   <si>
-    <t>SILLA PARA VISITA CON BRAZOS</t>
-  </si>
-  <si>
-    <t>SILLA TIPO ALEZA</t>
-  </si>
-  <si>
-    <t>SOFA ALDARA</t>
-  </si>
-  <si>
-    <t>SILLON INDIVIDUAL</t>
-  </si>
-  <si>
-    <t>SILLA DE TRABAJO</t>
-  </si>
-  <si>
-    <t>TAPETE DE FIBRAS</t>
-  </si>
-  <si>
     <t>PORTA EXTINTOR</t>
   </si>
   <si>
-    <t>MESA DE CONFERENCIAS DE MÁRMOL CON UN ACABADO PULIDO.</t>
-  </si>
-  <si>
     <t>TAPETE PLASTICO</t>
   </si>
   <si>
-    <t>PANTALL DE TV</t>
-  </si>
-  <si>
     <t>CAJONERA CON RUEDAS</t>
   </si>
   <si>
-    <t>PANTALLA DE TV</t>
-  </si>
-  <si>
     <t>SA</t>
   </si>
   <si>
@@ -326,18 +275,12 @@
     <t>EL-IL-001</t>
   </si>
   <si>
-    <t>EL-SI-003</t>
-  </si>
-  <si>
     <t>CUADRO</t>
   </si>
   <si>
     <t>ELEMENTO</t>
   </si>
   <si>
-    <t>EL-EL-001</t>
-  </si>
-  <si>
     <t>EL-SI-004</t>
   </si>
   <si>
@@ -356,21 +299,12 @@
     <t>EL-CU-002</t>
   </si>
   <si>
-    <t>EL-PA-002</t>
-  </si>
-  <si>
-    <t>EL-TA-003</t>
-  </si>
-  <si>
     <t>EL-CE-003</t>
   </si>
   <si>
     <t>EL-SI-006</t>
   </si>
   <si>
-    <t>EL-CE-002</t>
-  </si>
-  <si>
     <t>EL-BI-002</t>
   </si>
   <si>
@@ -488,9 +422,6 @@
     <t>Lavabo</t>
   </si>
   <si>
-    <t>Llave Lavabo</t>
-  </si>
-  <si>
     <t>Pared Azulejo</t>
   </si>
   <si>
@@ -680,9 +611,6 @@
     <t>PUERTA COMPLETA</t>
   </si>
   <si>
-    <t>LLAVE DE LAVABO</t>
-  </si>
-  <si>
     <t>PARED DE AZULEJO</t>
   </si>
   <si>
@@ -783,6 +711,192 @@
   </si>
   <si>
     <t>KT-TL-006</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>Librero</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>A/C</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>TELEVISION</t>
+  </si>
+  <si>
+    <t>EL-BP-002</t>
+  </si>
+  <si>
+    <t>EL-BO-002</t>
+  </si>
+  <si>
+    <t>EL-LM-002</t>
+  </si>
+  <si>
+    <t>Lampara Decorativa</t>
+  </si>
+  <si>
+    <t>LAMPARA DECORATIVA</t>
+  </si>
+  <si>
+    <t>EL-AR-001</t>
+  </si>
+  <si>
+    <t>Aire Acondicionado</t>
+  </si>
+  <si>
+    <t>AIRE ACONDICIONADO</t>
+  </si>
+  <si>
+    <t>Cuadro Decorativo</t>
+  </si>
+  <si>
+    <t>EL-LM-003</t>
+  </si>
+  <si>
+    <t>EL-TV-001</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>LIBRERO</t>
+  </si>
+  <si>
+    <t>EL-LI-001</t>
+  </si>
+  <si>
+    <t>Escritorio Ejecutivo</t>
+  </si>
+  <si>
+    <t>ARCHIVERO</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>EL-AH-001</t>
+  </si>
+  <si>
+    <t>Archivero Personal</t>
+  </si>
+  <si>
+    <t>ARCHIVERO PERSONAL</t>
+  </si>
+  <si>
+    <t>EL-AH-002</t>
+  </si>
+  <si>
+    <t>Archivero Mediano</t>
+  </si>
+  <si>
+    <t>ARCHIVERO MEDIANO</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>EL-BA-001</t>
+  </si>
+  <si>
+    <t>Banco Decorativo</t>
+  </si>
+  <si>
+    <t>Sillas Ejecutivas</t>
+  </si>
+  <si>
+    <t>SILLAS EJECUTIVAS</t>
+  </si>
+  <si>
+    <t>Mesa Redonda</t>
+  </si>
+  <si>
+    <t>Sillas Tela</t>
+  </si>
+  <si>
+    <t>SILLAS DE TELA</t>
+  </si>
+  <si>
+    <t>Mesa Cristal</t>
+  </si>
+  <si>
+    <t>MESA CRISTAL</t>
+  </si>
+  <si>
+    <t>EL-LZ-002</t>
+  </si>
+  <si>
+    <t>EL-PU-002</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-OF-001-SP-001-P</t>
+  </si>
+  <si>
+    <t>AD-DI-OF</t>
+  </si>
+  <si>
+    <t>Direccion Oficina 001</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-OF-001-VI-001-P</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-OF-001-SA-001-B</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-OF-001-SA-001-M</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-OF-001-SA-001-P</t>
+  </si>
+  <si>
+    <t>FR-SA-001</t>
+  </si>
+  <si>
+    <t>FR-SA-002</t>
+  </si>
+  <si>
+    <t>FR-SA-003</t>
+  </si>
+  <si>
+    <t>Elementos Sacudir</t>
+  </si>
+  <si>
+    <t>Sacudir Elementos</t>
+  </si>
+  <si>
+    <t>EL-CH-002</t>
+  </si>
+  <si>
+    <t>EL-VI-003</t>
+  </si>
+  <si>
+    <t>EL-VI-004</t>
+  </si>
+  <si>
+    <t>RE-SA-001</t>
+  </si>
+  <si>
+    <t>KT-SA-001</t>
+  </si>
+  <si>
+    <t>Elemento + Kit</t>
+  </si>
+  <si>
+    <t>CM-DS-003</t>
+  </si>
+  <si>
+    <t>Direccion Oficina 002</t>
   </si>
 </sst>
 </file>
@@ -793,7 +907,7 @@
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,14 +931,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -999,9 +1105,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1011,8 +1114,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1032,12 +1145,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1050,33 +1157,24 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="74">
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1104,6 +1202,450 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1458,9 +2000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1481,30 +2023,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="O1" s="18" t="s">
+      <c r="M1" s="22"/>
+      <c r="O1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="18"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
@@ -1523,19 +2065,19 @@
         <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
@@ -1555,10 +2097,10 @@
         <v>30</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
@@ -1567,42 +2109,42 @@
         <v>28</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -1611,31 +2153,31 @@
         <v>28</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1643,10 +2185,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -1655,22 +2197,22 @@
         <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
@@ -1681,10 +2223,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -1693,7 +2235,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>0</v>
@@ -1705,24 +2247,24 @@
         <v>1</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -1731,36 +2273,36 @@
         <v>28</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="11">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -1769,36 +2311,36 @@
         <v>28</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="11">
-        <v>1</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -1807,36 +2349,36 @@
         <v>28</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -1845,36 +2387,36 @@
         <v>28</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I10" s="11">
         <v>1</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>83</v>
+        <v>104</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -1883,36 +2425,36 @@
         <v>28</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I11" s="11">
         <v>1</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>45</v>
+      <c r="J11" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -1921,112 +2463,112 @@
         <v>28</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I12" s="11">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>157</v>
+      <c r="F13" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="I13" s="11">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>158</v>
+      <c r="F14" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I14" s="11">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -2035,74 +2577,74 @@
         <v>28</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="I15" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>86</v>
+        <v>147</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>168</v>
+      <c r="F16" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="I16" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -2110,113 +2652,113 @@
       <c r="E17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>181</v>
+      <c r="F17" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="I17" s="11">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>184</v>
+      <c r="F18" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I18" s="11">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>201</v>
+      <c r="F19" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="I19" s="11">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>126</v>
+        <v>234</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -2225,36 +2767,36 @@
         <v>28</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="I20" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>84</v>
+        <v>235</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -2262,143 +2804,151 @@
       <c r="E21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="I21" s="11">
-        <v>1</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="12">
-        <v>12</v>
+        <v>183</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="I22" s="11">
         <v>1</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>47</v>
+      <c r="J22" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>206</v>
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D23" s="12">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>241</v>
+      </c>
       <c r="G23" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I23" s="11">
         <v>1</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>93</v>
+        <v>249</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>85</v>
+        <v>183</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="I24" s="11">
-        <v>1</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>116</v>
+        <v>3</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>86</v>
+        <v>243</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -2406,548 +2956,570 @@
       <c r="E25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10" t="s">
+      <c r="F25" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="11">
-        <v>1</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="24">
-        <v>2</v>
+        <v>183</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10" t="s">
+      <c r="F26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="I26" s="11">
-        <v>1</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
+      <c r="F27" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="I27" s="11">
-        <v>2</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>206</v>
+        <v>34</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="24">
+        <v>69</v>
+      </c>
+      <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>248</v>
+      </c>
       <c r="G28" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="I28" s="11">
         <v>1</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="24">
+        <v>183</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10" t="s">
+      <c r="F29" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="I29" s="11">
         <v>1</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>199</v>
+      <c r="J29" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="24">
+        <v>254</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
+      <c r="F30" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="I30" s="11">
-        <v>1</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>202</v>
+        <v>2</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="24">
-        <v>4</v>
+        <v>183</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
+      <c r="F31" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="I31" s="11">
-        <v>3</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="24">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="G32" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="13">
+        <v>7</v>
+      </c>
+      <c r="I32" s="11">
         <v>1</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>56</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>206</v>
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="24">
+        <v>73</v>
+      </c>
+      <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="G33" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="I33" s="11">
         <v>1</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>206</v>
+        <v>8</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="25">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="G34" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="I34" s="11">
         <v>2</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>44</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="24">
-        <v>8</v>
+        <v>183</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="G35" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I35" s="11">
-        <v>4</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>75</v>
+        <v>2</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="24">
+        <v>71</v>
+      </c>
+      <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>227</v>
+      </c>
       <c r="G36" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="I36" s="11">
         <v>1</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="24">
+        <v>267</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10" t="s">
+      <c r="F37" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="I37" s="11">
         <v>2</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>58</v>
+      <c r="J37" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="24">
-        <v>2</v>
+        <v>183</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
+      <c r="F38" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="I38" s="11">
         <v>2</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>59</v>
+      <c r="J38" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="24">
-        <v>1</v>
+        <v>281</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10" t="s">
+      <c r="F39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I39" s="11">
         <v>2</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>47</v>
+      <c r="J39" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>282</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="24">
+        <v>183</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
+      <c r="F40" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="I40" s="11">
-        <v>2</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="24">
+        <v>283</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
+      <c r="F41" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="I41" s="11">
-        <v>3</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>56</v>
+        <v>4</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="24">
-        <v>2</v>
+        <v>184</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>28</v>
@@ -2960,23 +3532,23 @@
         <v>7</v>
       </c>
       <c r="I42" s="11">
-        <v>5</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>87</v>
+        <v>4</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="24">
+        <v>85</v>
+      </c>
+      <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="10" t="s">
@@ -2987,27 +3559,27 @@
         <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I43" s="11">
-        <v>6</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="24">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>28</v>
@@ -3017,26 +3589,26 @@
         <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="I44" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="25">
+        <v>81</v>
+      </c>
+      <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" s="10" t="s">
@@ -3047,27 +3619,27 @@
         <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I45" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="24">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>28</v>
@@ -3077,27 +3649,141 @@
         <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="I46" s="11">
+        <v>5</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="11">
+        <v>6</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="11">
+        <v>1</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="11">
+        <v>3</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" s="11">
         <v>2</v>
       </c>
-      <c r="J46" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="17"/>
-    </row>
-    <row r="49" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="J50" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <autoFilter ref="A2:J37" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:J35" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="4">
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="L1:M1"/>
@@ -3105,12 +3791,12 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="M3:M30">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+  <conditionalFormatting sqref="A3:A26 A28:A50">
+    <cfRule type="duplicateValues" dxfId="73" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A46">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+  <conditionalFormatting sqref="M3:M28">
+    <cfRule type="duplicateValues" dxfId="71" priority="38"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3119,10 +3805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3141,76 +3827,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="26" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="O1" s="22" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="O1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="R1" s="19" t="s">
+      <c r="P1" s="26"/>
+      <c r="R1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="19"/>
+      <c r="S1" s="22"/>
     </row>
     <row r="2" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>12</v>
@@ -3224,146 +3910,146 @@
     </row>
     <row r="3" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>3</v>
@@ -3371,366 +4057,366 @@
     </row>
     <row r="6" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
-        <v>240</v>
+      <c r="A7" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
-        <v>240</v>
+      <c r="A8" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>174</v>
+        <v>122</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>26</v>
@@ -3738,46 +4424,46 @@
     </row>
     <row r="13" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>0</v>
@@ -3785,140 +4471,140 @@
     </row>
     <row r="14" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F14" s="1">
         <v>6</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F15" s="1">
         <v>7</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>7</v>
@@ -3926,46 +4612,46 @@
     </row>
     <row r="17" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>5</v>
@@ -3973,93 +4659,93 @@
     </row>
     <row r="18" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>1</v>
@@ -4067,113 +4753,113 @@
     </row>
     <row r="20" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F22" s="1">
         <v>7</v>
@@ -4182,45 +4868,45 @@
         <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -4229,45 +4915,45 @@
         <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -4276,45 +4962,45 @@
         <v>3</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
@@ -4323,45 +5009,45 @@
         <v>3</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F26" s="1">
         <v>4</v>
@@ -4370,45 +5056,45 @@
         <v>3</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
@@ -4417,45 +5103,45 @@
         <v>3</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F28" s="1">
         <v>6</v>
@@ -4464,45 +5150,45 @@
         <v>3</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F29" s="1">
         <v>7</v>
@@ -4511,45 +5197,45 @@
         <v>3</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F30" s="1">
         <v>8</v>
@@ -4558,41 +5244,1755 @@
         <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I30" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="R30" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="S30" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="M32" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="1">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="1">
+        <v>6</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="1">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="1">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="1">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F48" s="1">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="1">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="1">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="1">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" s="1">
+        <v>9</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="1">
+        <v>10</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="1">
+        <v>11</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" s="1">
+        <v>12</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F65" s="1">
+        <v>4</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J65" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" s="1">
+        <v>6</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F68" s="1">
+        <v>7</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="1">
+        <v>8</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" s="1">
+        <v>9</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="1">
+        <v>10</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F72" s="1">
+        <v>11</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F73" s="1">
+        <v>12</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
@@ -4602,17 +7002,145 @@
     <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="S3:S30">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="duplicateValues" dxfId="68" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="duplicateValues" dxfId="66" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B36">
+    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:B40">
+    <cfRule type="duplicateValues" dxfId="60" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="duplicateValues" dxfId="58" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="duplicateValues" dxfId="56" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="duplicateValues" dxfId="54" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="duplicateValues" dxfId="50" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="duplicateValues" dxfId="46" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="duplicateValues" dxfId="42" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="duplicateValues" dxfId="40" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="duplicateValues" dxfId="38" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="duplicateValues" dxfId="34" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:B57">
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:B59">
+    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B61">
+    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:B69">
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:B71">
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P8 P10">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S30">
+    <cfRule type="duplicateValues" dxfId="5" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4623,8 +7151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655E34C1-8893-416F-AC58-A8CF678637B0}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="96" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4647,68 +7175,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="27" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="26" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="N1" s="22" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="N1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="23"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>12</v>
@@ -4716,266 +7244,448 @@
     </row>
     <row r="3" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>234</v>
+        <v>125</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="14">
-        <v>3</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>234</v>
+      <c r="A4" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="14">
+        <v>217</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="13">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>236</v>
+        <v>171</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>195</v>
+        <v>218</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>172</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>235</v>
+        <v>171</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>195</v>
+        <v>219</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>172</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="N8" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="N9" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="O9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="N10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="N11" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="N12" s="10" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="20"/>
+    </row>
     <row r="15" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4987,14 +7697,15 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="F1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O3:O8 O10">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/imports/Elemento.xlsx
+++ b/imports/Elemento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CBF7A2-F48A-4BE6-8CF2-6534553EA997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCDCE4A-461A-4902-8692-F597C8E65065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elemento" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="294">
   <si>
     <t>EL</t>
   </si>
@@ -897,6 +897,21 @@
   </si>
   <si>
     <t>Direccion Oficina 002</t>
+  </si>
+  <si>
+    <t>Extintor</t>
+  </si>
+  <si>
+    <t>Tapete Decorativo</t>
+  </si>
+  <si>
+    <t>Silla Ejecutiva</t>
+  </si>
+  <si>
+    <t>Silla Tela</t>
+  </si>
+  <si>
+    <t>Archivero</t>
   </si>
 </sst>
 </file>
@@ -1163,20 +1178,6 @@
   </cellStyles>
   <dxfs count="74">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -1212,6 +1213,20 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2000,9 +2015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3524,7 +3539,9 @@
       <c r="E42" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="G42" s="10" t="s">
         <v>0</v>
       </c>
@@ -3554,7 +3571,9 @@
       <c r="E43" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>289</v>
+      </c>
       <c r="G43" s="10" t="s">
         <v>0</v>
       </c>
@@ -3584,7 +3603,9 @@
       <c r="E44" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>290</v>
+      </c>
       <c r="G44" s="10" t="s">
         <v>0</v>
       </c>
@@ -3614,7 +3635,9 @@
       <c r="E45" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>241</v>
+      </c>
       <c r="G45" s="10" t="s">
         <v>0</v>
       </c>
@@ -3644,7 +3667,9 @@
       <c r="E46" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="10" t="s">
+        <v>292</v>
+      </c>
       <c r="G46" s="10" t="s">
         <v>0</v>
       </c>
@@ -3674,7 +3699,9 @@
       <c r="E47" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>291</v>
+      </c>
       <c r="G47" s="10" t="s">
         <v>0</v>
       </c>
@@ -3704,7 +3731,9 @@
       <c r="E48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="10"/>
+      <c r="F48" s="10" t="s">
+        <v>293</v>
+      </c>
       <c r="G48" s="10" t="s">
         <v>0</v>
       </c>
@@ -3734,7 +3763,9 @@
       <c r="E49" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="10"/>
+      <c r="F49" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G49" s="10" t="s">
         <v>0</v>
       </c>
@@ -3764,7 +3795,9 @@
       <c r="E50" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="G50" s="10" t="s">
         <v>0</v>
       </c>
@@ -3807,7 +3840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
@@ -7015,24 +7048,24 @@
     <cfRule type="duplicateValues" dxfId="65" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B36">
-    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
     <cfRule type="duplicateValues" dxfId="62" priority="60"/>
     <cfRule type="duplicateValues" dxfId="61" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B40">
-    <cfRule type="duplicateValues" dxfId="60" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
     <cfRule type="duplicateValues" dxfId="58" priority="56"/>
     <cfRule type="duplicateValues" dxfId="57" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="56" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
     <cfRule type="duplicateValues" dxfId="54" priority="50"/>
@@ -7051,28 +7084,28 @@
     <cfRule type="duplicateValues" dxfId="47" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="46" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
     <cfRule type="duplicateValues" dxfId="42" priority="39"/>
     <cfRule type="duplicateValues" dxfId="41" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="40" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="duplicateValues" dxfId="38" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
     <cfRule type="duplicateValues" dxfId="34" priority="29"/>
@@ -7091,56 +7124,56 @@
     <cfRule type="duplicateValues" dxfId="27" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B61">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B69">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:B71">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
     <cfRule type="duplicateValues" dxfId="10" priority="4"/>
     <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P3:P8 P10">
-    <cfRule type="duplicateValues" dxfId="8" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="duplicateValues" dxfId="7" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="duplicateValues" dxfId="6" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S30">
-    <cfRule type="duplicateValues" dxfId="5" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="76"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7152,7 +7185,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7699,13 +7732,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O3:O8 O10">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/imports/Elemento.xlsx
+++ b/imports/Elemento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCDCE4A-461A-4902-8692-F597C8E65065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD46490F-18E1-4F7F-B617-FBFA74BACB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="ElementoSet" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elemento!$A$2:$J$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elemento!$A$2:$J$59</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="338">
   <si>
     <t>EL</t>
   </si>
@@ -140,21 +140,12 @@
     <t>EL-ME-002</t>
   </si>
   <si>
-    <t>EL-TA-002</t>
-  </si>
-  <si>
-    <t>EL-CA-001</t>
-  </si>
-  <si>
     <t>CESTO</t>
   </si>
   <si>
     <t xml:space="preserve">ILLUXLÁMPARA </t>
   </si>
   <si>
-    <t>BIBLIOTECA NORDICA</t>
-  </si>
-  <si>
     <t>CUADROS DECORATIVOS</t>
   </si>
   <si>
@@ -164,12 +155,6 @@
     <t>PORTA EXTINTOR</t>
   </si>
   <si>
-    <t>TAPETE PLASTICO</t>
-  </si>
-  <si>
-    <t>CAJONERA CON RUEDAS</t>
-  </si>
-  <si>
     <t>SA</t>
   </si>
   <si>
@@ -206,9 +191,6 @@
     <t>CA</t>
   </si>
   <si>
-    <t>SILLA NÓRDICA TUBULAR</t>
-  </si>
-  <si>
     <t>EL-LA-001</t>
   </si>
   <si>
@@ -299,15 +281,6 @@
     <t>EL-CU-002</t>
   </si>
   <si>
-    <t>EL-CE-003</t>
-  </si>
-  <si>
-    <t>EL-SI-006</t>
-  </si>
-  <si>
-    <t>EL-BI-002</t>
-  </si>
-  <si>
     <t>Se usa</t>
   </si>
   <si>
@@ -902,16 +875,175 @@
     <t>Extintor</t>
   </si>
   <si>
-    <t>Tapete Decorativo</t>
-  </si>
-  <si>
     <t>Silla Ejecutiva</t>
   </si>
   <si>
     <t>Silla Tela</t>
   </si>
   <si>
-    <t>Archivero</t>
+    <t>KT-VI-003</t>
+  </si>
+  <si>
+    <t>EL-ME-003</t>
+  </si>
+  <si>
+    <t>Mesa Juntas</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>MESA DE JUNTAS</t>
+  </si>
+  <si>
+    <t>SILLA EJECUTIVA</t>
+  </si>
+  <si>
+    <t>ACCESO</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>EL-AE-001</t>
+  </si>
+  <si>
+    <t>Sensor Acceso</t>
+  </si>
+  <si>
+    <t>SENSOR ACCESO</t>
+  </si>
+  <si>
+    <t>EL-LZ-003</t>
+  </si>
+  <si>
+    <t>EL-CH-003</t>
+  </si>
+  <si>
+    <t>EL-AC-002</t>
+  </si>
+  <si>
+    <t>Accesorios Mesa</t>
+  </si>
+  <si>
+    <t>ACCESORIOS DE MESA</t>
+  </si>
+  <si>
+    <t>EL-BO-003</t>
+  </si>
+  <si>
+    <t>EL-BP-003</t>
+  </si>
+  <si>
+    <t>BORDE DE PARED</t>
+  </si>
+  <si>
+    <t>PROYECCION</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>EL-PO-001</t>
+  </si>
+  <si>
+    <t>Pantalla Proyeccion</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>PANTALLA DE PROYECCION</t>
+  </si>
+  <si>
+    <t>EL-LM-004</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>EL-BS-001</t>
+  </si>
+  <si>
+    <t>Base Proyector</t>
+  </si>
+  <si>
+    <t>BASE DE PROYECTOR</t>
+  </si>
+  <si>
+    <t>EL-AR-002</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>AIREA ACONDICIONADO</t>
+  </si>
+  <si>
+    <t>EL-AC-003</t>
+  </si>
+  <si>
+    <t>Accesorios Plumones</t>
+  </si>
+  <si>
+    <t>ACCESORIO DE PLUMONES</t>
+  </si>
+  <si>
+    <t>EL-PU-003</t>
+  </si>
+  <si>
+    <t>EL-VI-005</t>
+  </si>
+  <si>
+    <t>EL-VI-006</t>
+  </si>
+  <si>
+    <t>EL-EC-002</t>
+  </si>
+  <si>
+    <t>EL-AH-003</t>
+  </si>
+  <si>
+    <t>EL-SI-003</t>
+  </si>
+  <si>
+    <t>EL-AH-004</t>
+  </si>
+  <si>
+    <t>EL-CH-004</t>
+  </si>
+  <si>
+    <t>EL-LM-005</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>EL-AR-003</t>
+  </si>
+  <si>
+    <t>EL-TV-002</t>
+  </si>
+  <si>
+    <t>EL-BP-004</t>
+  </si>
+  <si>
+    <t>EL-VI-007</t>
+  </si>
+  <si>
+    <t>EL-VI-008</t>
+  </si>
+  <si>
+    <t>EL-LZ-004</t>
+  </si>
+  <si>
+    <t>EL-PU-004</t>
+  </si>
+  <si>
+    <t>EL-LI-002</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,11 +1304,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="93">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1213,6 +1360,139 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2013,11 +2293,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2028,7 +2308,7 @@
     <col min="6" max="6" width="17.19921875" customWidth="1"/>
     <col min="8" max="8" width="15.3984375" customWidth="1"/>
     <col min="9" max="9" width="12.3984375" customWidth="1"/>
-    <col min="10" max="10" width="21.73046875" customWidth="1"/>
+    <col min="10" max="10" width="23.1328125" customWidth="1"/>
     <col min="11" max="11" width="6.46484375" customWidth="1"/>
     <col min="12" max="12" width="18.46484375" customWidth="1"/>
     <col min="13" max="13" width="12.73046875" customWidth="1"/>
@@ -2080,19 +2360,19 @@
         <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
@@ -2112,10 +2392,10 @@
         <v>30</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
@@ -2124,42 +2404,42 @@
         <v>28</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -2168,31 +2448,31 @@
         <v>28</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2200,10 +2480,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -2212,22 +2492,22 @@
         <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
@@ -2238,10 +2518,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -2250,7 +2530,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>0</v>
@@ -2262,24 +2542,24 @@
         <v>1</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -2288,36 +2568,36 @@
         <v>28</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -2326,25 +2606,25 @@
         <v>28</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I8" s="11">
         <v>1</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2352,10 +2632,10 @@
         <v>32</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -2364,36 +2644,36 @@
         <v>28</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I9" s="11">
         <v>1</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -2402,36 +2682,36 @@
         <v>28</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I10" s="11">
         <v>1</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -2440,36 +2720,36 @@
         <v>28</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I11" s="11">
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -2478,36 +2758,36 @@
         <v>28</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I12" s="11">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -2516,36 +2796,36 @@
         <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I13" s="11">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -2554,36 +2834,36 @@
         <v>28</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I14" s="11">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -2592,36 +2872,36 @@
         <v>28</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I15" s="11">
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -2630,36 +2910,36 @@
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I16" s="11">
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -2668,36 +2948,36 @@
         <v>28</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I17" s="11">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -2706,36 +2986,36 @@
         <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="I18" s="11">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -2744,22 +3024,22 @@
         <v>28</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I19" s="11">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>26</v>
@@ -2767,13 +3047,13 @@
     </row>
     <row r="20" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -2782,36 +3062,36 @@
         <v>28</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I20" s="11">
         <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -2820,36 +3100,36 @@
         <v>28</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I21" s="11">
         <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="L21" s="10" t="s">
-        <v>246</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -2858,25 +3138,25 @@
         <v>28</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I22" s="11">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2884,10 +3164,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D23" s="12">
         <v>11</v>
@@ -2896,7 +3176,7 @@
         <v>28</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>0</v>
@@ -2908,24 +3188,24 @@
         <v>1</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
@@ -2934,36 +3214,36 @@
         <v>28</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I24" s="11">
         <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -2972,22 +3252,22 @@
         <v>28</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I25" s="11">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>7</v>
@@ -2995,13 +3275,13 @@
     </row>
     <row r="26" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -3010,22 +3290,22 @@
         <v>28</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I26" s="11">
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>1</v>
@@ -3033,13 +3313,13 @@
     </row>
     <row r="27" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -3048,22 +3328,22 @@
         <v>28</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="I27" s="11">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>5</v>
@@ -3074,10 +3354,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -3086,36 +3366,36 @@
         <v>28</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I28" s="11">
         <v>1</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3124,30 +3404,36 @@
         <v>28</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="I29" s="11">
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -3156,30 +3442,36 @@
         <v>28</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="I30" s="11">
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -3188,19 +3480,25 @@
         <v>28</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I31" s="11">
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3208,10 +3506,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -3220,7 +3518,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>0</v>
@@ -3232,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3240,10 +3538,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -3252,7 +3550,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>0</v>
@@ -3272,10 +3570,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
@@ -3284,7 +3582,7 @@
         <v>28</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>0</v>
@@ -3296,7 +3594,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3304,10 +3602,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -3316,7 +3614,7 @@
         <v>28</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>0</v>
@@ -3328,7 +3626,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3336,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -3348,7 +3646,7 @@
         <v>28</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>0</v>
@@ -3360,18 +3658,18 @@
         <v>1</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -3380,30 +3678,30 @@
         <v>28</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I37" s="11">
         <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -3412,30 +3710,30 @@
         <v>28</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I38" s="11">
         <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -3444,30 +3742,30 @@
         <v>28</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I39" s="11">
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -3476,30 +3774,30 @@
         <v>28</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I40" s="11">
         <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -3508,254 +3806,254 @@
         <v>28</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I41" s="11">
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>83</v>
+      <c r="A42" s="31" t="s">
+        <v>284</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>70</v>
+        <v>175</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D42" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G42" s="10" t="s">
+      <c r="F42" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="11">
-        <v>4</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>87</v>
+        <v>325</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>85</v>
+        <v>175</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="D43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I43" s="11">
-        <v>1</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I44" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>88</v>
+      <c r="A45" s="31" t="s">
+        <v>291</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="1">
+        <v>175</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="31">
         <v>1</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="G45" s="10" t="s">
+      <c r="F45" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="11">
-        <v>2</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>41</v>
+      <c r="H45" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="I45" s="34">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>84</v>
+      <c r="A46" s="31" t="s">
+        <v>294</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2</v>
+        <v>175</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="31">
+        <v>1</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="G46" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="11">
-        <v>5</v>
+        <v>153</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>286</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>295</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>70</v>
+        <v>175</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="G47" s="10" t="s">
+      <c r="F47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="11">
-        <v>6</v>
+      <c r="H47" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>286</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>37</v>
+      <c r="A48" s="31" t="s">
+        <v>296</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="31">
+        <v>3</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="G48" s="10" t="s">
+      <c r="F48" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="G48" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I48" s="11">
-        <v>1</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>45</v>
+      <c r="H48" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" s="34">
+        <v>2</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>38</v>
+        <v>175</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D49" s="10">
         <v>1</v>
@@ -3764,59 +4062,830 @@
         <v>28</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G49" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="31" t="s">
         <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" s="11">
-        <v>3</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>38</v>
+        <v>85</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>300</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>67</v>
+        <v>175</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G50" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="31" t="s">
         <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I50" s="11">
+        <v>89</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="31">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="11">
         <v>2</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="J52" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="31">
+        <v>4</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D54" s="31">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I54" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="31">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I55" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="31">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="J56" s="31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I57" s="11">
+        <v>3</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58" s="11">
+        <v>5</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I59" s="11">
+        <v>6</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I61" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="11">
+        <v>5</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" s="31">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I67" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="J67" s="31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I68" s="11">
+        <v>2</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I69" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I70" s="11">
+        <v>7</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I71" s="11">
+        <v>8</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="31">
+        <v>1</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I73" s="11">
+        <v>4</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I74" s="11">
+        <v>2</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <autoFilter ref="A2:J35" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:J59" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="4">
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="L1:M1"/>
@@ -3824,12 +4893,55 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A26 A28:A50">
-    <cfRule type="duplicateValues" dxfId="73" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="40"/>
+  <conditionalFormatting sqref="M3:M31">
+    <cfRule type="duplicateValues" dxfId="92" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M28">
-    <cfRule type="duplicateValues" dxfId="71" priority="38"/>
+  <conditionalFormatting sqref="H49:H51 H53:H56">
+    <cfRule type="duplicateValues" dxfId="91" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="90" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="duplicateValues" dxfId="88" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="duplicateValues" dxfId="86" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="duplicateValues" dxfId="85" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:A71">
+    <cfRule type="duplicateValues" dxfId="83" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="duplicateValues" dxfId="81" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="80" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52 A3:A26 A28:A49 A58:A59">
+    <cfRule type="duplicateValues" dxfId="78" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61 A3:A59 A67:A74">
+    <cfRule type="duplicateValues" dxfId="76" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:A160 A3:A74">
+    <cfRule type="duplicateValues" dxfId="75" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="duplicateValues" dxfId="74" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3841,7 +4953,7 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3890,46 +5002,46 @@
     </row>
     <row r="2" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>12</v>
@@ -3943,13 +5055,13 @@
     </row>
     <row r="3" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3960,45 +5072,45 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4009,45 +5121,45 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4058,31 +5170,31 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>3</v>
@@ -4090,13 +5202,13 @@
     </row>
     <row r="6" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4107,51 +5219,51 @@
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -4160,51 +5272,51 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -4213,51 +5325,51 @@
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -4266,51 +5378,51 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -4319,51 +5431,51 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -4372,51 +5484,51 @@
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
@@ -4425,31 +5537,31 @@
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>26</v>
@@ -4457,19 +5569,19 @@
     </row>
     <row r="13" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>222</v>
+      <c r="C13" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
@@ -4478,25 +5590,25 @@
         <v>3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>0</v>
@@ -4504,19 +5616,19 @@
     </row>
     <row r="14" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F14" s="1">
         <v>6</v>
@@ -4525,45 +5637,45 @@
         <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F15" s="1">
         <v>7</v>
@@ -4572,72 +5684,72 @@
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>7</v>
@@ -4645,19 +5757,19 @@
     </row>
     <row r="17" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -4666,25 +5778,25 @@
         <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>5</v>
@@ -4692,19 +5804,19 @@
     </row>
     <row r="18" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
@@ -4713,45 +5825,45 @@
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
@@ -4760,25 +5872,25 @@
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>1</v>
@@ -4786,19 +5898,19 @@
     </row>
     <row r="20" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F20" s="1">
         <v>5</v>
@@ -4807,45 +5919,45 @@
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
@@ -4854,45 +5966,45 @@
         <v>3</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F22" s="1">
         <v>7</v>
@@ -4901,45 +6013,45 @@
         <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -4948,45 +6060,45 @@
         <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -4995,45 +6107,45 @@
         <v>3</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
@@ -5042,45 +6154,45 @@
         <v>3</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F26" s="1">
         <v>4</v>
@@ -5089,45 +6201,45 @@
         <v>3</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
@@ -5136,45 +6248,45 @@
         <v>3</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F28" s="1">
         <v>6</v>
@@ -5183,45 +6295,45 @@
         <v>3</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F29" s="1">
         <v>7</v>
@@ -5230,45 +6342,45 @@
         <v>3</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F30" s="1">
         <v>8</v>
@@ -5277,39 +6389,39 @@
         <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -5320,33 +6432,33 @@
         <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -5357,33 +6469,33 @@
         <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -5394,33 +6506,33 @@
         <v>3</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -5431,33 +6543,33 @@
         <v>3</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -5468,33 +6580,33 @@
         <v>3</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -5505,33 +6617,33 @@
         <v>3</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -5542,33 +6654,33 @@
         <v>3</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -5579,39 +6691,39 @@
         <v>3</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -5620,39 +6732,39 @@
         <v>3</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F40" s="1">
         <v>2</v>
@@ -5661,39 +6773,39 @@
         <v>3</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -5702,39 +6814,39 @@
         <v>3</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K41" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M41" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F42" s="1">
         <v>2</v>
@@ -5743,39 +6855,39 @@
         <v>3</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M42" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F43" s="1">
         <v>3</v>
@@ -5784,39 +6896,39 @@
         <v>3</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M43" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F44" s="1">
         <v>4</v>
@@ -5825,33 +6937,33 @@
         <v>3</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K44" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M44" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="16"/>
@@ -5862,39 +6974,39 @@
         <v>3</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K45" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M45" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F46" s="1">
         <v>6</v>
@@ -5903,33 +7015,33 @@
         <v>3</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M46" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="16"/>
@@ -5940,39 +7052,39 @@
         <v>3</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K47" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M47" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F48" s="1">
         <v>8</v>
@@ -5981,39 +7093,39 @@
         <v>3</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K48" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M48" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F49" s="1">
         <v>9</v>
@@ -6022,39 +7134,39 @@
         <v>3</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K49" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M49" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -6063,39 +7175,39 @@
         <v>3</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M50" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F51" s="1">
         <v>2</v>
@@ -6104,39 +7216,39 @@
         <v>3</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K51" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M51" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
@@ -6145,39 +7257,39 @@
         <v>3</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K52" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M52" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F53" s="1">
         <v>4</v>
@@ -6186,39 +7298,39 @@
         <v>3</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K53" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M53" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F54" s="1">
         <v>5</v>
@@ -6227,39 +7339,39 @@
         <v>3</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K54" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M54" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F55" s="1">
         <v>6</v>
@@ -6268,39 +7380,39 @@
         <v>3</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K55" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M55" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F56" s="1">
         <v>7</v>
@@ -6309,33 +7421,33 @@
         <v>3</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K56" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M56" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="16"/>
@@ -6346,39 +7458,39 @@
         <v>3</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K57" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M57" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F58" s="1">
         <v>9</v>
@@ -6387,33 +7499,33 @@
         <v>3</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K58" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M58" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="16"/>
@@ -6424,39 +7536,39 @@
         <v>3</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K59" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M59" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F60" s="1">
         <v>11</v>
@@ -6465,39 +7577,39 @@
         <v>3</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K60" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M60" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F61" s="1">
         <v>12</v>
@@ -6506,39 +7618,39 @@
         <v>3</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K61" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M61" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
@@ -6547,39 +7659,39 @@
         <v>3</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K62" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L62" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M62" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F63" s="1">
         <v>2</v>
@@ -6588,39 +7700,39 @@
         <v>3</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K63" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M63" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F64" s="1">
         <v>3</v>
@@ -6629,39 +7741,39 @@
         <v>3</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K64" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M64" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F65" s="1">
         <v>4</v>
@@ -6670,39 +7782,39 @@
         <v>3</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K65" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M65" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F66" s="1">
         <v>5</v>
@@ -6711,39 +7823,39 @@
         <v>3</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K66" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M66" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F67" s="1">
         <v>6</v>
@@ -6752,39 +7864,39 @@
         <v>3</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K67" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L67" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M67" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F68" s="1">
         <v>7</v>
@@ -6793,33 +7905,33 @@
         <v>3</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K68" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L68" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M68" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="16"/>
@@ -6830,39 +7942,39 @@
         <v>3</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K69" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L69" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M69" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F70" s="1">
         <v>9</v>
@@ -6871,33 +7983,33 @@
         <v>3</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J70" s="19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K70" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L70" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M70" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="16"/>
@@ -6908,39 +8020,39 @@
         <v>3</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J71" s="19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K71" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L71" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M71" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F72" s="1">
         <v>11</v>
@@ -6949,39 +8061,39 @@
         <v>3</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J72" s="19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K72" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L72" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L72" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M72" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F73" s="1">
         <v>12</v>
@@ -6990,22 +8102,22 @@
         <v>3</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K73" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L73" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M73" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7036,52 +8148,52 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="68" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="66" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B36">
-    <cfRule type="duplicateValues" dxfId="64" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B40">
     <cfRule type="duplicateValues" dxfId="60" priority="35"/>
     <cfRule type="duplicateValues" dxfId="59" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="58" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="56" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="54" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
     <cfRule type="duplicateValues" dxfId="50" priority="43"/>
     <cfRule type="duplicateValues" dxfId="49" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="46" priority="41"/>
@@ -7100,12 +8212,12 @@
     <cfRule type="duplicateValues" dxfId="39" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="duplicateValues" dxfId="38" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
     <cfRule type="duplicateValues" dxfId="34" priority="29"/>
@@ -7120,12 +8232,12 @@
     <cfRule type="duplicateValues" dxfId="29" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B59">
-    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B61">
-    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
     <cfRule type="duplicateValues" dxfId="24" priority="17"/>
@@ -7140,28 +8252,28 @@
     <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
     <cfRule type="duplicateValues" dxfId="16" priority="9"/>
     <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B69">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:B71">
     <cfRule type="duplicateValues" dxfId="12" priority="5"/>
     <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P8 P10">
     <cfRule type="duplicateValues" dxfId="6" priority="70"/>
@@ -7185,7 +8297,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7233,16 +8345,16 @@
     </row>
     <row r="2" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>18</v>
@@ -7251,25 +8363,25 @@
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>12</v>
@@ -7277,442 +8389,442 @@
     </row>
     <row r="3" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D4" s="13">
         <v>3</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/imports/Elemento.xlsx
+++ b/imports/Elemento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD46490F-18E1-4F7F-B617-FBFA74BACB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD363E0-FF5E-4573-9AAE-EF3365F0A518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elemento" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="336">
   <si>
     <t>EL</t>
   </si>
@@ -834,12 +834,6 @@
   </si>
   <si>
     <t>FR-SA-001</t>
-  </si>
-  <si>
-    <t>FR-SA-002</t>
-  </si>
-  <si>
-    <t>FR-SA-003</t>
   </si>
   <si>
     <t>Elementos Sacudir</t>
@@ -1214,7 +1208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1274,6 +1268,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1303,21 +1300,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2295,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
     </sheetView>
@@ -2318,30 +2300,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="O1" s="21" t="s">
+      <c r="M1" s="23"/>
+      <c r="O1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="21"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
@@ -3418,11 +3400,11 @@
       <c r="J29" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L29" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="M29" s="31" t="s">
-        <v>290</v>
+      <c r="L29" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3456,11 +3438,11 @@
       <c r="J30" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L30" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="M30" s="31" t="s">
-        <v>303</v>
+      <c r="L30" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3494,10 +3476,10 @@
       <c r="J31" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="L31" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="M31" s="31" t="s">
+      <c r="L31" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3727,7 +3709,7 @@
     </row>
     <row r="39" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>174</v>
@@ -3759,7 +3741,7 @@
     </row>
     <row r="40" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>174</v>
@@ -3791,7 +3773,7 @@
     </row>
     <row r="41" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>174</v>
@@ -3822,8 +3804,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="31" t="s">
-        <v>284</v>
+      <c r="A42" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>175</v>
@@ -3838,7 +3820,7 @@
         <v>28</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>0</v>
@@ -3846,16 +3828,16 @@
       <c r="H42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="32" t="s">
-        <v>286</v>
+      <c r="I42" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>175</v>
@@ -3882,7 +3864,7 @@
         <v>4</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3902,7 +3884,7 @@
         <v>28</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>0</v>
@@ -3918,40 +3900,40 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="31" t="s">
-        <v>291</v>
+      <c r="A45" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D45" s="31">
+        <v>287</v>
+      </c>
+      <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="33" t="s">
-        <v>292</v>
+      <c r="F45" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="I45" s="34">
+      <c r="H45" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I45" s="11">
         <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="31" t="s">
-        <v>294</v>
+      <c r="A46" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>175</v>
@@ -3959,7 +3941,7 @@
       <c r="C46" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="10" t="s">
@@ -3974,8 +3956,8 @@
       <c r="H46" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I46" s="32" t="s">
-        <v>286</v>
+      <c r="I46" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>182</v>
@@ -3983,7 +3965,7 @@
     </row>
     <row r="47" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>175</v>
@@ -4003,19 +3985,19 @@
       <c r="G47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="H47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I47" s="32" t="s">
-        <v>286</v>
+      <c r="I47" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="31" t="s">
-        <v>296</v>
+      <c r="A48" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>175</v>
@@ -4023,31 +4005,31 @@
       <c r="C48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="1">
         <v>3</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="G48" s="31" t="s">
+      <c r="F48" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H48" s="31" t="s">
+      <c r="H48" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="11">
         <v>2</v>
       </c>
-      <c r="J48" s="31" t="s">
-        <v>298</v>
+      <c r="J48" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>175</v>
@@ -4064,22 +4046,22 @@
       <c r="F49" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G49" s="31" t="s">
+      <c r="G49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I49" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="J49" s="31" t="s">
-        <v>301</v>
+      <c r="I49" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>175</v>
@@ -4096,49 +4078,49 @@
       <c r="F50" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G50" s="31" t="s">
+      <c r="G50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I50" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="J50" s="31" t="s">
+      <c r="I50" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="31" t="s">
-        <v>304</v>
+      <c r="A51" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D51" s="31">
+        <v>300</v>
+      </c>
+      <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="I51" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="J51" s="31" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -4174,8 +4156,8 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="31" t="s">
-        <v>308</v>
+      <c r="A53" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>175</v>
@@ -4183,7 +4165,7 @@
       <c r="C53" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="1">
         <v>4</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -4192,54 +4174,54 @@
       <c r="F53" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G53" s="31" t="s">
+      <c r="G53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="31" t="s">
+      <c r="H53" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I53" s="35" t="s">
+      <c r="I53" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="J53" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="28.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="31" t="s">
-        <v>311</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D54" s="31">
+        <v>308</v>
+      </c>
+      <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="G54" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H54" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="I54" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="J54" s="31" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="31" t="s">
-        <v>314</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>175</v>
@@ -4247,7 +4229,7 @@
       <c r="C55" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" s="10" t="s">
@@ -4256,22 +4238,22 @@
       <c r="F55" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G55" s="31" t="s">
+      <c r="G55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H55" s="31" t="s">
+      <c r="H55" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I55" s="35" t="s">
+      <c r="I55" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="J55" s="31" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="31" t="s">
-        <v>317</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>175</v>
@@ -4279,31 +4261,31 @@
       <c r="C56" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D56" s="31">
+      <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="G56" s="31" t="s">
+      <c r="F56" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H56" s="31" t="s">
+      <c r="H56" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I56" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="J56" s="31" t="s">
-        <v>319</v>
+      <c r="I56" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>175</v>
@@ -4335,7 +4317,7 @@
     </row>
     <row r="58" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>175</v>
@@ -4367,7 +4349,7 @@
     </row>
     <row r="59" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>175</v>
@@ -4399,7 +4381,7 @@
     </row>
     <row r="60" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>176</v>
@@ -4422,8 +4404,8 @@
       <c r="H60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I60" s="32" t="s">
-        <v>315</v>
+      <c r="I60" s="21" t="s">
+        <v>313</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>39</v>
@@ -4431,7 +4413,7 @@
     </row>
     <row r="61" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>176</v>
@@ -4454,8 +4436,8 @@
       <c r="H61" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I61" s="32" t="s">
-        <v>315</v>
+      <c r="I61" s="21" t="s">
+        <v>313</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>244</v>
@@ -4478,7 +4460,7 @@
         <v>28</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>0</v>
@@ -4486,11 +4468,11 @@
       <c r="H62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="32" t="s">
-        <v>309</v>
+      <c r="I62" s="21" t="s">
+        <v>307</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
@@ -4510,7 +4492,7 @@
         <v>28</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>0</v>
@@ -4527,7 +4509,7 @@
     </row>
     <row r="64" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>176</v>
@@ -4550,8 +4532,8 @@
       <c r="H64" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I64" s="32" t="s">
-        <v>309</v>
+      <c r="I64" s="21" t="s">
+        <v>307</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>247</v>
@@ -4559,7 +4541,7 @@
     </row>
     <row r="65" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>176</v>
@@ -4582,8 +4564,8 @@
       <c r="H65" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I65" s="32" t="s">
-        <v>309</v>
+      <c r="I65" s="21" t="s">
+        <v>307</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>181</v>
@@ -4591,7 +4573,7 @@
     </row>
     <row r="66" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>176</v>
@@ -4614,16 +4596,16 @@
       <c r="H66" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I66" s="32" t="s">
-        <v>329</v>
+      <c r="I66" s="21" t="s">
+        <v>327</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="31" t="s">
-        <v>330</v>
+      <c r="A67" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>176</v>
@@ -4631,7 +4613,7 @@
       <c r="C67" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D67" s="31">
+      <c r="D67" s="1">
         <v>1</v>
       </c>
       <c r="E67" s="10" t="s">
@@ -4640,22 +4622,22 @@
       <c r="F67" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G67" s="31" t="s">
+      <c r="G67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H67" s="31" t="s">
+      <c r="H67" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I67" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="J67" s="31" t="s">
-        <v>316</v>
+      <c r="I67" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>176</v>
@@ -4687,7 +4669,7 @@
     </row>
     <row r="69" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>176</v>
@@ -4704,22 +4686,22 @@
       <c r="F69" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G69" s="31" t="s">
+      <c r="G69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I69" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="J69" s="31" t="s">
+      <c r="I69" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>176</v>
@@ -4751,7 +4733,7 @@
     </row>
     <row r="71" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>176</v>
@@ -4782,8 +4764,8 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="31" t="s">
-        <v>335</v>
+      <c r="A72" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>176</v>
@@ -4791,7 +4773,7 @@
       <c r="C72" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D72" s="31">
+      <c r="D72" s="1">
         <v>1</v>
       </c>
       <c r="E72" s="10" t="s">
@@ -4806,8 +4788,8 @@
       <c r="H72" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I72" s="32" t="s">
-        <v>309</v>
+      <c r="I72" s="21" t="s">
+        <v>307</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>182</v>
@@ -4815,7 +4797,7 @@
     </row>
     <row r="73" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>176</v>
@@ -4847,7 +4829,7 @@
     </row>
     <row r="74" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>176</v>
@@ -4893,55 +4875,55 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="M3:M31">
-    <cfRule type="duplicateValues" dxfId="92" priority="58"/>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="92" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49:H51 H53:H56">
-    <cfRule type="duplicateValues" dxfId="91" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="90" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="19"/>
+  <conditionalFormatting sqref="A52 A3:A26 A28:A49 A58:A59">
+    <cfRule type="duplicateValues" dxfId="90" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
     <cfRule type="duplicateValues" dxfId="88" priority="15"/>
     <cfRule type="duplicateValues" dxfId="87" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="duplicateValues" dxfId="86" priority="12"/>
+  <conditionalFormatting sqref="A61 A3:A59 A67:A74">
+    <cfRule type="duplicateValues" dxfId="86" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
     <cfRule type="duplicateValues" dxfId="85" priority="10"/>
     <cfRule type="duplicateValues" dxfId="84" priority="11"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="83" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="6"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="83" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="duplicateValues" dxfId="81" priority="7"/>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="duplicateValues" dxfId="79" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="80" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52 A3:A26 A28:A49 A58:A59">
-    <cfRule type="duplicateValues" dxfId="78" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61 A3:A59 A67:A74">
-    <cfRule type="duplicateValues" dxfId="76" priority="140"/>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:A160 A3:A74">
     <cfRule type="duplicateValues" dxfId="75" priority="144"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="74" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="4"/>
+  <conditionalFormatting sqref="H49:H51 H53:H56">
+    <cfRule type="duplicateValues" dxfId="74" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="2"/>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="duplicateValues" dxfId="73" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="duplicateValues" dxfId="72" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M31">
+    <cfRule type="duplicateValues" dxfId="71" priority="58"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4972,33 +4954,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="27" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="O1" s="25" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="O1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="R1" s="22" t="s">
+      <c r="P1" s="27"/>
+      <c r="R1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="22"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
@@ -5575,7 +5557,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>139</v>
@@ -6700,7 +6682,7 @@
         <v>160</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>193</v>
@@ -6714,7 +6696,7 @@
         <v>263</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>212</v>
@@ -6755,7 +6737,7 @@
         <v>263</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>213</v>
@@ -6799,10 +6781,10 @@
         <v>34</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>158</v>
@@ -6826,7 +6808,7 @@
         <v>262</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>199</v>
@@ -6840,10 +6822,10 @@
         <v>242</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>159</v>
@@ -6867,7 +6849,7 @@
         <v>262</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>199</v>
@@ -6881,10 +6863,10 @@
         <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>159</v>
@@ -6908,7 +6890,7 @@
         <v>262</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>199</v>
@@ -6922,10 +6904,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>158</v>
@@ -6949,7 +6931,7 @@
         <v>262</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>199</v>
@@ -6963,7 +6945,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="16"/>
@@ -6986,10 +6968,10 @@
         <v>262</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
@@ -7000,10 +6982,10 @@
         <v>35</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>158</v>
@@ -7027,7 +7009,7 @@
         <v>262</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>199</v>
@@ -7041,7 +7023,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="16"/>
@@ -7064,10 +7046,10 @@
         <v>262</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
@@ -7078,10 +7060,10 @@
         <v>258</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>159</v>
@@ -7105,7 +7087,7 @@
         <v>262</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>199</v>
@@ -7116,13 +7098,13 @@
         <v>264</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>159</v>
@@ -7146,7 +7128,7 @@
         <v>262</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>199</v>
@@ -7160,10 +7142,10 @@
         <v>34</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>158</v>
@@ -7187,7 +7169,7 @@
         <v>262</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>199</v>
@@ -7201,10 +7183,10 @@
         <v>242</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>159</v>
@@ -7228,7 +7210,7 @@
         <v>262</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>199</v>
@@ -7242,10 +7224,10 @@
         <v>245</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>158</v>
@@ -7269,7 +7251,7 @@
         <v>262</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>199</v>
@@ -7283,10 +7265,10 @@
         <v>249</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>159</v>
@@ -7310,7 +7292,7 @@
         <v>262</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>199</v>
@@ -7324,13 +7306,13 @@
         <v>238</v>
       </c>
       <c r="C54" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="F54" s="1">
         <v>5</v>
@@ -7351,7 +7333,7 @@
         <v>262</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>199</v>
@@ -7365,10 +7347,10 @@
         <v>9</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>159</v>
@@ -7392,7 +7374,7 @@
         <v>262</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>199</v>
@@ -7406,10 +7388,10 @@
         <v>2</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>158</v>
@@ -7433,7 +7415,7 @@
         <v>262</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>199</v>
@@ -7447,7 +7429,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="16"/>
@@ -7470,10 +7452,10 @@
         <v>262</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
@@ -7484,10 +7466,10 @@
         <v>35</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>158</v>
@@ -7511,7 +7493,7 @@
         <v>262</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>199</v>
@@ -7525,7 +7507,7 @@
         <v>6</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="16"/>
@@ -7548,10 +7530,10 @@
         <v>262</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
@@ -7562,10 +7544,10 @@
         <v>258</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>159</v>
@@ -7589,7 +7571,7 @@
         <v>262</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>199</v>
@@ -7600,13 +7582,13 @@
         <v>265</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>159</v>
@@ -7630,7 +7612,7 @@
         <v>262</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>199</v>
@@ -7644,10 +7626,10 @@
         <v>34</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>158</v>
@@ -7671,7 +7653,7 @@
         <v>262</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>199</v>
@@ -7685,10 +7667,10 @@
         <v>242</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>159</v>
@@ -7712,7 +7694,7 @@
         <v>262</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>199</v>
@@ -7726,10 +7708,10 @@
         <v>245</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>158</v>
@@ -7753,7 +7735,7 @@
         <v>262</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>199</v>
@@ -7767,10 +7749,10 @@
         <v>249</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>159</v>
@@ -7794,7 +7776,7 @@
         <v>262</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>199</v>
@@ -7808,13 +7790,13 @@
         <v>238</v>
       </c>
       <c r="C66" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="F66" s="1">
         <v>5</v>
@@ -7835,7 +7817,7 @@
         <v>262</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>199</v>
@@ -7849,10 +7831,10 @@
         <v>9</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>159</v>
@@ -7876,7 +7858,7 @@
         <v>262</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>199</v>
@@ -7890,10 +7872,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>158</v>
@@ -7917,7 +7899,7 @@
         <v>262</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>199</v>
@@ -7931,7 +7913,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="16"/>
@@ -7954,10 +7936,10 @@
         <v>262</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
@@ -7968,10 +7950,10 @@
         <v>35</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>158</v>
@@ -7995,7 +7977,7 @@
         <v>262</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>199</v>
@@ -8009,7 +7991,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="16"/>
@@ -8032,10 +8014,10 @@
         <v>262</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
@@ -8046,10 +8028,10 @@
         <v>258</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>159</v>
@@ -8073,7 +8055,7 @@
         <v>262</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>199</v>
@@ -8087,10 +8069,10 @@
         <v>259</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>159</v>
@@ -8114,7 +8096,7 @@
         <v>262</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>199</v>
@@ -8148,52 +8130,52 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="70" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="68" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="66" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B36">
-    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="62" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B40">
     <cfRule type="duplicateValues" dxfId="60" priority="35"/>
     <cfRule type="duplicateValues" dxfId="59" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="58" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="56" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="54" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="52" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
     <cfRule type="duplicateValues" dxfId="50" priority="43"/>
     <cfRule type="duplicateValues" dxfId="49" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="48" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="46" priority="41"/>
@@ -8212,12 +8194,12 @@
     <cfRule type="duplicateValues" dxfId="39" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="duplicateValues" dxfId="38" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
     <cfRule type="duplicateValues" dxfId="34" priority="29"/>
@@ -8232,12 +8214,12 @@
     <cfRule type="duplicateValues" dxfId="29" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B59">
-    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B61">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
     <cfRule type="duplicateValues" dxfId="24" priority="17"/>
@@ -8252,28 +8234,28 @@
     <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
     <cfRule type="duplicateValues" dxfId="16" priority="9"/>
     <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B69">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:B71">
     <cfRule type="duplicateValues" dxfId="12" priority="5"/>
     <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P8 P10">
     <cfRule type="duplicateValues" dxfId="6" priority="70"/>
@@ -8296,8 +8278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655E34C1-8893-416F-AC58-A8CF678637B0}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8320,28 +8302,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="28" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="27" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="N1" s="25" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="N1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="26"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
@@ -8709,7 +8691,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>3</v>
@@ -8727,7 +8709,7 @@
         <v>262</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>161</v>
@@ -8747,13 +8729,13 @@
         <v>174</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>3</v>
@@ -8771,7 +8753,7 @@
         <v>262</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>165</v>
@@ -8791,13 +8773,13 @@
         <v>174</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>3</v>
@@ -8815,7 +8797,7 @@
         <v>262</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>160</v>

--- a/imports/Elemento.xlsx
+++ b/imports/Elemento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3512CC-E64E-471B-A225-2F1CB3C982B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD50905F-762B-4267-94FB-D297CC4063FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="ElementoSet" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elemento!$A$2:$J$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elemento!$A$2:$J$239</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -3206,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I240" sqref="I240"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11273,7 +11273,7 @@
     <row r="310" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="311" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <autoFilter ref="A2:J232" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:J239" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:I1"/>
@@ -11465,7 +11465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="66" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>

--- a/imports/Elemento.xlsx
+++ b/imports/Elemento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD50905F-762B-4267-94FB-D297CC4063FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25C0FB4-DF00-4EF3-A91E-6C32398CFC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="585">
   <si>
     <t>EL</t>
   </si>
@@ -1656,6 +1656,135 @@
   </si>
   <si>
     <t>EL-CH-015</t>
+  </si>
+  <si>
+    <t>EL-LM-022</t>
+  </si>
+  <si>
+    <t>PD-IN-CO-001</t>
+  </si>
+  <si>
+    <t>EL-BO-015</t>
+  </si>
+  <si>
+    <t>EL-BP-018</t>
+  </si>
+  <si>
+    <t>VIGAS</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>EL-VG-001</t>
+  </si>
+  <si>
+    <t>VIGA</t>
+  </si>
+  <si>
+    <t>Viga Techo</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
+  <si>
+    <t>TUBERIA</t>
+  </si>
+  <si>
+    <t>Tuberia Techo</t>
+  </si>
+  <si>
+    <t>EL-TU-001</t>
+  </si>
+  <si>
+    <t>EL-AH-022</t>
+  </si>
+  <si>
+    <t>Mueble Medicamentos</t>
+  </si>
+  <si>
+    <t>EL-MU-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesa Pasteur </t>
+  </si>
+  <si>
+    <t>EL-ME-004</t>
+  </si>
+  <si>
+    <t>Mesa Movil</t>
+  </si>
+  <si>
+    <t>EL-ME-005</t>
+  </si>
+  <si>
+    <t>EL-EC-012</t>
+  </si>
+  <si>
+    <t>EL-SI-015</t>
+  </si>
+  <si>
+    <t>EL-SI-016</t>
+  </si>
+  <si>
+    <t>Silla Madera</t>
+  </si>
+  <si>
+    <t>CAMILLA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>EL-CA-001</t>
+  </si>
+  <si>
+    <t>Camilla</t>
+  </si>
+  <si>
+    <t>BANQUILLO</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>EL-BN-001</t>
+  </si>
+  <si>
+    <t>Banquillo</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BASCULA</t>
+  </si>
+  <si>
+    <t>EL-BC-001</t>
+  </si>
+  <si>
+    <t>Bascula</t>
+  </si>
+  <si>
+    <t>EL-LM-023</t>
+  </si>
+  <si>
+    <t>Lampara Examen</t>
+  </si>
+  <si>
+    <t>EL-AR-007</t>
+  </si>
+  <si>
+    <t>Ventilador</t>
+  </si>
+  <si>
+    <t>EL-LZ-018</t>
+  </si>
+  <si>
+    <t>EL-PU-018</t>
+  </si>
+  <si>
+    <t>EL-CH-018</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1972,11 +2101,17 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="143">
+  <dxfs count="152">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2003,6 +2138,11 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2522,11 +2662,44 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2539,6 +2712,18 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2708,11 +2893,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3206,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C243" sqref="C243"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J244" sqref="J244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3216,8 +3396,8 @@
     <col min="2" max="2" width="15.73046875" customWidth="1"/>
     <col min="3" max="3" width="15" style="6" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="17.265625" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="21.73046875" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" customWidth="1"/>
     <col min="9" max="9" width="12.3984375" customWidth="1"/>
     <col min="10" max="10" width="27.86328125" customWidth="1"/>
     <col min="11" max="11" width="6.46484375" customWidth="1"/>
@@ -4595,8 +4775,12 @@
       <c r="J36" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L36" s="15"/>
-      <c r="M36" s="14"/>
+      <c r="L36" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
@@ -4629,6 +4813,12 @@
       <c r="J37" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="L37" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="M37" s="41" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
@@ -4661,6 +4851,12 @@
       <c r="J38" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="L38" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="M38" s="41" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
@@ -4693,6 +4889,12 @@
       <c r="J39" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="L39" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="M39" s="41" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
@@ -4725,6 +4927,12 @@
       <c r="J40" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="L40" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="M40" s="41" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
@@ -11200,39 +11408,419 @@
         <v>152</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="241" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="242" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="243" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="244" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="245" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="246" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="247" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="248" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="249" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="250" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="251" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="252" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="253" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="254" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="255" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="256" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="257" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="258" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="259" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="260" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="261" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="262" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="263" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="264" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="265" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="266" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="267" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="268" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="269" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="270" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="271" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="272" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A240" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="B240" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D240" s="41">
+        <v>2</v>
+      </c>
+      <c r="E240" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A241" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B241" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D241" s="1">
+        <v>1</v>
+      </c>
+      <c r="E241" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A242" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B242" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D242" s="1">
+        <v>1</v>
+      </c>
+      <c r="E242" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A243" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B243" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D243" s="41">
+        <v>2</v>
+      </c>
+      <c r="E243" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A244" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="B244" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C244" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="D244" s="41">
+        <v>1</v>
+      </c>
+      <c r="E244" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F244" s="41" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A245" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B245" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D245" s="41">
+        <v>1</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F245" s="41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A246" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="B246" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D246" s="41">
+        <v>1</v>
+      </c>
+      <c r="E246" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F246" s="41" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A247" s="41" t="s">
+        <v>559</v>
+      </c>
+      <c r="B247" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D247" s="41">
+        <v>1</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F247" s="41" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A248" s="41" t="s">
+        <v>561</v>
+      </c>
+      <c r="B248" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D248" s="41">
+        <v>1</v>
+      </c>
+      <c r="E248" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F248" s="41" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A249" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="B249" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D249" s="41">
+        <v>1</v>
+      </c>
+      <c r="E249" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A250" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="B250" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D250" s="41">
+        <v>1</v>
+      </c>
+      <c r="E250" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F250" s="41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A251" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="B251" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D251" s="41">
+        <v>2</v>
+      </c>
+      <c r="E251" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F251" s="41" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A252" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="B252" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D252" s="41">
+        <v>1</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F252" s="41" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A253" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="B253" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D253" s="1">
+        <v>1</v>
+      </c>
+      <c r="E253" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F253" s="41" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A254" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="B254" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C254" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="D254" s="41">
+        <v>1</v>
+      </c>
+      <c r="E254" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F254" s="41" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A255" s="41" t="s">
+        <v>578</v>
+      </c>
+      <c r="B255" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D255" s="41">
+        <v>1</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F255" s="41" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A256" s="41" t="s">
+        <v>580</v>
+      </c>
+      <c r="B256" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D256" s="41">
+        <v>1</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F256" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A257" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B257" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D257" s="41">
+        <v>1</v>
+      </c>
+      <c r="E257" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A258" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B258" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D258" s="41">
+        <v>1</v>
+      </c>
+      <c r="E258" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F258" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A259" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B259" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D259" s="41">
+        <v>1</v>
+      </c>
+      <c r="E259" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="273" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="274" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="275" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11282,179 +11870,204 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A2 A230:A1048576">
-    <cfRule type="duplicateValues" dxfId="142" priority="2016"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="1611"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="1591"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1616"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1636"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="2041"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A140 A142:A229">
-    <cfRule type="duplicateValues" dxfId="139" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A159">
-    <cfRule type="duplicateValues" dxfId="138" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A284">
-    <cfRule type="duplicateValues" dxfId="137" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="duplicateValues" dxfId="136" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:A162">
-    <cfRule type="duplicateValues" dxfId="135" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163">
-    <cfRule type="duplicateValues" dxfId="134" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164:A165">
-    <cfRule type="duplicateValues" dxfId="133" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:A167">
-    <cfRule type="duplicateValues" dxfId="132" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168:A169">
-    <cfRule type="duplicateValues" dxfId="131" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170">
-    <cfRule type="duplicateValues" dxfId="130" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:A172">
-    <cfRule type="duplicateValues" dxfId="129" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174:A175">
-    <cfRule type="duplicateValues" dxfId="128" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A188:A189">
-    <cfRule type="duplicateValues" dxfId="127" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197:A198">
-    <cfRule type="duplicateValues" dxfId="126" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207:A208">
-    <cfRule type="duplicateValues" dxfId="125" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="duplicateValues" dxfId="124" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A231">
-    <cfRule type="duplicateValues" dxfId="123" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A233">
-    <cfRule type="duplicateValues" dxfId="122" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235">
-    <cfRule type="duplicateValues" dxfId="120" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="duplicateValues" dxfId="119" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A238">
-    <cfRule type="duplicateValues" dxfId="118" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239">
-    <cfRule type="duplicateValues" dxfId="117" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B174">
-    <cfRule type="duplicateValues" dxfId="116" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B188">
-    <cfRule type="duplicateValues" dxfId="115" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="114" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B197">
-    <cfRule type="duplicateValues" dxfId="113" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198">
-    <cfRule type="duplicateValues" dxfId="112" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B228">
-    <cfRule type="duplicateValues" dxfId="111" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B229">
-    <cfRule type="duplicateValues" dxfId="110" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="duplicateValues" dxfId="109" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="308"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="108" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53 H40:H41 H43 H45:H47">
-    <cfRule type="duplicateValues" dxfId="107" priority="655"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="680"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="duplicateValues" dxfId="106" priority="353"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="duplicateValues" dxfId="105" priority="348"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:H75">
-    <cfRule type="duplicateValues" dxfId="104" priority="1271"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="1296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="103" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="duplicateValues" dxfId="102" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90 H86">
-    <cfRule type="duplicateValues" dxfId="101" priority="1064"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="1089"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="duplicateValues" dxfId="100" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="duplicateValues" dxfId="99" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="duplicateValues" dxfId="98" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="duplicateValues" dxfId="97" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="duplicateValues" dxfId="96" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143">
-    <cfRule type="duplicateValues" dxfId="95" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H150">
-    <cfRule type="duplicateValues" dxfId="94" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H163">
-    <cfRule type="duplicateValues" dxfId="93" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H178">
-    <cfRule type="duplicateValues" dxfId="92" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H232">
-    <cfRule type="duplicateValues" dxfId="91" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L95:L123">
-    <cfRule type="duplicateValues" dxfId="90" priority="1668"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="1693"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:M40 L1:M2 M3:M36">
-    <cfRule type="duplicateValues" dxfId="89" priority="1175"/>
+  <conditionalFormatting sqref="L40:M40 L1:M2 M3:M39">
+    <cfRule type="duplicateValues" dxfId="99" priority="1200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M29">
-    <cfRule type="duplicateValues" dxfId="88" priority="2005"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="2030"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M31">
-    <cfRule type="duplicateValues" dxfId="87" priority="2007"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="2032"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M36">
-    <cfRule type="duplicateValues" dxfId="86" priority="2009"/>
+  <conditionalFormatting sqref="M4:M39">
+    <cfRule type="duplicateValues" dxfId="96" priority="2034"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:M31">
-    <cfRule type="duplicateValues" dxfId="85" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="duplicateValues" dxfId="84" priority="339"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="363"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P97:P128">
-    <cfRule type="duplicateValues" dxfId="82" priority="1670"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="1695"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A241">
+    <cfRule type="duplicateValues" dxfId="91" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A241">
+    <cfRule type="duplicateValues" dxfId="90" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A242">
+    <cfRule type="duplicateValues" dxfId="89" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A245">
+    <cfRule type="duplicateValues" dxfId="87" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C254">
+    <cfRule type="duplicateValues" dxfId="86" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A257">
+    <cfRule type="duplicateValues" dxfId="85" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A258">
+    <cfRule type="duplicateValues" dxfId="84" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A259">
+    <cfRule type="duplicateValues" dxfId="83" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A282">
+    <cfRule type="duplicateValues" dxfId="0" priority="2054"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14570,166 +15183,166 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="82" priority="88"/>
     <cfRule type="duplicateValues" dxfId="81" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="79" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="77" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B34">
+    <cfRule type="duplicateValues" dxfId="76" priority="82"/>
     <cfRule type="duplicateValues" dxfId="75" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
+    <cfRule type="duplicateValues" dxfId="74" priority="80"/>
     <cfRule type="duplicateValues" dxfId="73" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
+    <cfRule type="duplicateValues" dxfId="72" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="10"/>
     <cfRule type="duplicateValues" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
+    <cfRule type="duplicateValues" dxfId="65" priority="76"/>
     <cfRule type="duplicateValues" dxfId="64" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
+    <cfRule type="duplicateValues" dxfId="63" priority="74"/>
     <cfRule type="duplicateValues" dxfId="62" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
+    <cfRule type="duplicateValues" dxfId="61" priority="70"/>
     <cfRule type="duplicateValues" dxfId="60" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
+    <cfRule type="duplicateValues" dxfId="59" priority="66"/>
     <cfRule type="duplicateValues" dxfId="58" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="56" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="54" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
+    <cfRule type="duplicateValues" dxfId="53" priority="62"/>
     <cfRule type="duplicateValues" dxfId="52" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
+    <cfRule type="duplicateValues" dxfId="51" priority="58"/>
     <cfRule type="duplicateValues" dxfId="50" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
+    <cfRule type="duplicateValues" dxfId="49" priority="60"/>
     <cfRule type="duplicateValues" dxfId="48" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="46" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
+    <cfRule type="duplicateValues" dxfId="45" priority="52"/>
     <cfRule type="duplicateValues" dxfId="44" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
+    <cfRule type="duplicateValues" dxfId="43" priority="48"/>
     <cfRule type="duplicateValues" dxfId="42" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
+    <cfRule type="duplicateValues" dxfId="41" priority="50"/>
     <cfRule type="duplicateValues" dxfId="40" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
+    <cfRule type="duplicateValues" dxfId="39" priority="46"/>
     <cfRule type="duplicateValues" dxfId="38" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:B54">
-    <cfRule type="duplicateValues" dxfId="36" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:B56">
+    <cfRule type="duplicateValues" dxfId="35" priority="42"/>
     <cfRule type="duplicateValues" dxfId="34" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
+    <cfRule type="duplicateValues" dxfId="33" priority="40"/>
     <cfRule type="duplicateValues" dxfId="32" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
+    <cfRule type="duplicateValues" dxfId="31" priority="38"/>
     <cfRule type="duplicateValues" dxfId="30" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
+    <cfRule type="duplicateValues" dxfId="29" priority="36"/>
     <cfRule type="duplicateValues" dxfId="28" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
+    <cfRule type="duplicateValues" dxfId="27" priority="32"/>
     <cfRule type="duplicateValues" dxfId="26" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="24" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
+    <cfRule type="duplicateValues" dxfId="23" priority="30"/>
     <cfRule type="duplicateValues" dxfId="22" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
+    <cfRule type="duplicateValues" dxfId="21" priority="28"/>
     <cfRule type="duplicateValues" dxfId="20" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B68">
+    <cfRule type="duplicateValues" dxfId="19" priority="26"/>
     <cfRule type="duplicateValues" dxfId="18" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
+    <cfRule type="duplicateValues" dxfId="17" priority="24"/>
     <cfRule type="duplicateValues" dxfId="16" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
+    <cfRule type="duplicateValues" dxfId="15" priority="22"/>
     <cfRule type="duplicateValues" dxfId="14" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P8 P10">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1 S2:S34">
-    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S28">
-    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S30">
-    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S34">
-    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:S30">
-    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31">
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
     <cfRule type="duplicateValues" dxfId="4" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15222,13 +15835,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O3:O8 O10">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
